--- a/biology/Médecine/1238_en_santé_et_médecine/1238_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1238_en_santé_et_médecine/1238_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1238_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1238_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1238 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1238_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1238_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Février : à Gray, un seigneur donne une maison au recteur de Besançon pour en faire un hôpital[1].
-L'utilisation médicale du khat[2] est attestée pour la première fois, par l'ordonnance d'« un médecin arabe [qui] en prescrivit à des soldats pour prévenir la faim et la fatigue[3] ».
-Après avoir soumis en 1230 le droit d'exercer la médecine à une année d'étude de l'anatomie avec dissection[4], l'empereur Frédéric II, ordonne qu'une dissection soit pratiquée tous les cinq ans, en public, à l'école de Salerne[5].
-Fondation à Toul, en Lorraine, par le maître-échevin Nemery Barat, de l'hôpital de la Charité, dit hôpital des Bourgeois, confié aux chanoines réguliers du Saint-Esprit et qui est à l'origine de l'hôpital général devenu centre hospitalier Saint-Charles encore en activité aujourd'hui[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Février : à Gray, un seigneur donne une maison au recteur de Besançon pour en faire un hôpital.
+L'utilisation médicale du khat est attestée pour la première fois, par l'ordonnance d'« un médecin arabe [qui] en prescrivit à des soldats pour prévenir la faim et la fatigue ».
+Après avoir soumis en 1230 le droit d'exercer la médecine à une année d'étude de l'anatomie avec dissection, l'empereur Frédéric II, ordonne qu'une dissection soit pratiquée tous les cinq ans, en public, à l'école de Salerne.
+Fondation à Toul, en Lorraine, par le maître-échevin Nemery Barat, de l'hôpital de la Charité, dit hôpital des Bourgeois, confié aux chanoines réguliers du Saint-Esprit et qui est à l'origine de l'hôpital général devenu centre hospitalier Saint-Charles encore en activité aujourd'hui.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1238_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1238_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>À partir de 1201 et avant le 28 mars 1238 : fl. Ptolomeus, médecin à Lausanne[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>À partir de 1201 et avant le 28 mars 1238 : fl. Ptolomeus, médecin à Lausanne.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1238_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1238_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1238 : Luo Zhiti (mort en 1325 ou 1327), médecin chinois, maître de Zhu Zhenheng[8],[9].
-Entre 1238 et 1240 : Arnaud de Villeneuve (mort en 1311), médecin, alchimiste, théologien et astrologue catalan[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1238 : Luo Zhiti (mort en 1325 ou 1327), médecin chinois, maître de Zhu Zhenheng,.
+Entre 1238 et 1240 : Arnaud de Villeneuve (mort en 1311), médecin, alchimiste, théologien et astrologue catalan.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1238_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1238_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 1238 : Pierre, dit l'Inciseur, chirurgien à Lausanne ou Vufflens[7].
-Après 1238 et  avant 1510 : Petrus de Canali, barbier, domicile inconnu,  probablement mort à Lausanne[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 1238 : Pierre, dit l'Inciseur, chirurgien à Lausanne ou Vufflens.
+Après 1238 et  avant 1510 : Petrus de Canali, barbier, domicile inconnu,  probablement mort à Lausanne.
 </t>
         </is>
       </c>
